--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>Codigo</t>
   </si>
@@ -113,21 +113,9 @@
     <t>condicionesVenta[]</t>
   </si>
   <si>
-    <t>codigo</t>
-  </si>
-  <si>
     <t>porDefecto</t>
   </si>
   <si>
-    <t>listaEstandar</t>
-  </si>
-  <si>
-    <t>listaOferta</t>
-  </si>
-  <si>
-    <t>listaMinima</t>
-  </si>
-  <si>
     <t>atributos[]</t>
   </si>
   <si>
@@ -302,25 +290,34 @@
     <t>domicilios_nroOrden</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Aime aime</t>
-  </si>
-  <si>
-    <t>Aime S.a</t>
-  </si>
-  <si>
-    <t>aim@gmail.com</t>
-  </si>
-  <si>
-    <t>aim.com.ar</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>t</t>
+    <t>Bot 160 S.A</t>
+  </si>
+  <si>
+    <t>Bot160@gmail.com</t>
+  </si>
+  <si>
+    <t>bot160.com.ar</t>
+  </si>
+  <si>
+    <t>Bot 161</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>condicionesVenta_codigo</t>
+  </si>
+  <si>
+    <t>condicionesVenta_porDefecto</t>
+  </si>
+  <si>
+    <t>condicionesVenta_listaEstandar</t>
+  </si>
+  <si>
+    <t>condicionesVenta_listaOferta</t>
+  </si>
+  <si>
+    <t>condicionesVenta_listaMinima</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -412,6 +409,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,9 +759,9 @@
     <col min="57" max="57" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" style="16" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.85546875" style="1" customWidth="1"/>
     <col min="63" max="63" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11.42578125" style="1"/>
     <col min="65" max="65" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -877,190 +877,190 @@
         <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AK1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AV1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AX1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AY1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AZ1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="BD1" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BG1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BV1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BN1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="CF1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CI1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="CJ1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="CL1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
@@ -1068,22 +1068,22 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4">
         <v>3</v>
@@ -1095,13 +1095,13 @@
         <v>40729570</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="1">
@@ -1111,61 +1111,55 @@
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="1">
         <v>4</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH2" s="4">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="BH2" s="16">
+        <v>10</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1168,7 @@
       <c r="E3" s="10"/>
       <c r="H3" s="11"/>
       <c r="N3" s="12"/>
-      <c r="BH3" s="11"/>
+      <c r="BH3" s="17"/>
     </row>
     <row r="4" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1182,7 +1176,7 @@
       <c r="E4" s="10"/>
       <c r="H4" s="11"/>
       <c r="N4" s="12"/>
-      <c r="BH4" s="11"/>
+      <c r="BH4" s="17"/>
     </row>
     <row r="5" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1190,7 +1184,7 @@
       <c r="E5" s="10"/>
       <c r="H5" s="11"/>
       <c r="N5" s="12"/>
-      <c r="BH5" s="11"/>
+      <c r="BH5" s="17"/>
     </row>
     <row r="6" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1198,7 +1192,7 @@
       <c r="E6" s="10"/>
       <c r="H6" s="11"/>
       <c r="N6" s="12"/>
-      <c r="BH6" s="11"/>
+      <c r="BH6" s="17"/>
     </row>
     <row r="7" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1206,7 +1200,7 @@
       <c r="E7" s="10"/>
       <c r="H7" s="11"/>
       <c r="N7" s="12"/>
-      <c r="BH7" s="11"/>
+      <c r="BH7" s="17"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="S8" s="3"/>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Codigo</t>
   </si>
@@ -290,21 +290,12 @@
     <t>domicilios_nroOrden</t>
   </si>
   <si>
-    <t>Bot 160 S.A</t>
-  </si>
-  <si>
     <t>Bot160@gmail.com</t>
   </si>
   <si>
     <t>bot160.com.ar</t>
   </si>
   <si>
-    <t>Bot 161</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>condicionesVenta_codigo</t>
   </si>
   <si>
@@ -318,6 +309,15 @@
   </si>
   <si>
     <t>condicionesVenta_listaMinima</t>
+  </si>
+  <si>
+    <t>Bot 190</t>
+  </si>
+  <si>
+    <t>Bot 190 S.A</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -409,9 +409,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -695,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +756,7 @@
     <col min="57" max="57" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="25.85546875" style="1" customWidth="1"/>
     <col min="63" max="63" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -969,20 +966,20 @@
       <c r="BG1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="BM1" s="5" t="s">
         <v>30</v>
@@ -1065,19 +1062,19 @@
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -1146,7 +1143,7 @@
       <c r="AB2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BH2" s="16">
+      <c r="BH2" s="5">
         <v>10</v>
       </c>
       <c r="BI2" s="1" t="s">
@@ -1160,6 +1157,12 @@
       </c>
       <c r="BL2" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>9999</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1171,7 @@
       <c r="E3" s="10"/>
       <c r="H3" s="11"/>
       <c r="N3" s="12"/>
-      <c r="BH3" s="17"/>
+      <c r="BH3" s="9"/>
     </row>
     <row r="4" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1176,7 +1179,7 @@
       <c r="E4" s="10"/>
       <c r="H4" s="11"/>
       <c r="N4" s="12"/>
-      <c r="BH4" s="17"/>
+      <c r="BH4" s="9"/>
     </row>
     <row r="5" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1184,7 +1187,7 @@
       <c r="E5" s="10"/>
       <c r="H5" s="11"/>
       <c r="N5" s="12"/>
-      <c r="BH5" s="17"/>
+      <c r="BH5" s="9"/>
     </row>
     <row r="6" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1192,7 +1195,7 @@
       <c r="E6" s="10"/>
       <c r="H6" s="11"/>
       <c r="N6" s="12"/>
-      <c r="BH6" s="17"/>
+      <c r="BH6" s="9"/>
     </row>
     <row r="7" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -1200,7 +1203,7 @@
       <c r="E7" s="10"/>
       <c r="H7" s="11"/>
       <c r="N7" s="12"/>
-      <c r="BH7" s="17"/>
+      <c r="BH7" s="9"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="S8" s="3"/>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BP11" sqref="BP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -311,13 +311,13 @@
     <t>condicionesVenta_listaMinima</t>
   </si>
   <si>
-    <t>Bot 190</t>
-  </si>
-  <si>
-    <t>Bot 190 S.A</t>
-  </si>
-  <si>
-    <t>190</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>PepeSargento</t>
+  </si>
+  <si>
+    <t>PepeSargentoSRL</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -409,6 +409,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -692,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BP11" sqref="BP11"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,52 +1006,52 @@
       <c r="BT1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BU1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BX1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CA1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CB1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CD1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CE1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CF1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CH1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>86</v>
       </c>
       <c r="CK1" s="5" t="s">
@@ -1062,13 +1063,13 @@
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>88</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
   <si>
     <t>Codigo</t>
   </si>
@@ -290,12 +290,6 @@
     <t>domicilios_nroOrden</t>
   </si>
   <si>
-    <t>Bot160@gmail.com</t>
-  </si>
-  <si>
-    <t>bot160.com.ar</t>
-  </si>
-  <si>
     <t>condicionesVenta_codigo</t>
   </si>
   <si>
@@ -311,13 +305,40 @@
     <t>condicionesVenta_listaMinima</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>PepeSargento</t>
-  </si>
-  <si>
-    <t>PepeSargentoSRL</t>
+    <t>za@gmail.com</t>
+  </si>
+  <si>
+    <t>hol@gmail.com</t>
+  </si>
+  <si>
+    <t>za.com.ar</t>
+  </si>
+  <si>
+    <t>hol.com.ar</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Marcela</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>Nayla</t>
   </si>
 </sst>
 </file>
@@ -693,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BR9" sqref="BR9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,19 +989,19 @@
         <v>28</v>
       </c>
       <c r="BH1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="BM1" s="5" t="s">
         <v>30</v>
@@ -1063,19 +1084,19 @@
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -1166,29 +1187,320 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="BH3" s="9"/>
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40729570</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>10</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="BH4" s="9"/>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>95</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40729570</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>10</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>9999</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="BH5" s="9"/>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>95</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40729570</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>10</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>9999</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1227,8 +1539,14 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2" display="www.arcor.com.ar"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4" display="www.arcor.com.ar"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6" display="www.arcor.com.ar"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8" display="www.arcor.com.ar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CC\PP\01-Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CC\PP\02-ConvertOrganizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Codigo</t>
   </si>
@@ -308,37 +308,22 @@
     <t>za@gmail.com</t>
   </si>
   <si>
-    <t>hol@gmail.com</t>
-  </si>
-  <si>
     <t>za.com.ar</t>
   </si>
   <si>
-    <t>hol.com.ar</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Marcela</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>Nayla</t>
+    <t>Aanicolas</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>AAPepe</t>
+  </si>
+  <si>
+    <t>Aapepe</t>
   </si>
 </sst>
 </file>
@@ -715,7 +700,7 @@
   <dimension ref="A1:CL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,19 +1069,19 @@
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
@@ -1192,16 +1177,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>37</v>
@@ -1293,214 +1278,16 @@
       </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>95</v>
-      </c>
-      <c r="J4" s="1">
-        <v>40729570</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH4" s="5">
-        <v>10</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>95</v>
-      </c>
-      <c r="J5" s="1">
-        <v>40729570</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BH5" s="5">
-        <v>10</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1541,12 +1328,8 @@
     <hyperlink ref="E2" r:id="rId2" display="www.arcor.com.ar"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="E3" r:id="rId4" display="www.arcor.com.ar"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6" display="www.arcor.com.ar"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8" display="www.arcor.com.ar"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>